--- a/ComcastCRMGUIFramework/resourse/TestCase.xlsx
+++ b/ComcastCRMGUIFramework/resourse/TestCase.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DC1F7CF8-0568-41C2-8E8D-AAD8C4DBA3A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="2" r:id="rId1"/>
     <sheet name="Contact" sheetId="1" r:id="rId2"/>
+    <sheet name="Akshay" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="B22:C27"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>Test case name</t>
   </si>
@@ -249,12 +248,30 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>Subject Name</t>
+  </si>
+  <si>
+    <t>Bill Address</t>
+  </si>
+  <si>
+    <t>Ship Address</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Tyss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -417,6 +434,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,17 +451,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -498,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -533,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -710,69 +730,69 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98EB3B9-FD2D-4227-AD78-42CB31664FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B25" sqref="B25:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.36328125" customWidth="1"/>
-    <col min="4" max="4" width="70.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="70.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -786,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -800,7 +820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -814,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -826,7 +846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -838,7 +858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="43.2">
       <c r="A10" s="11">
         <v>5</v>
       </c>
@@ -852,7 +872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="11">
         <v>6</v>
       </c>
@@ -862,63 +882,63 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
@@ -932,7 +952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="14">
         <v>1</v>
       </c>
@@ -946,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="14">
         <v>2</v>
       </c>
@@ -960,7 +980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="14">
         <v>3</v>
       </c>
@@ -972,7 +992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="28.8">
       <c r="A22" s="14">
         <v>4</v>
       </c>
@@ -984,7 +1004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="72">
       <c r="A23" s="14">
         <v>5</v>
       </c>
@@ -998,7 +1018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="14">
         <v>6</v>
       </c>
@@ -1008,57 +1028,57 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" s="14">
         <v>1</v>
       </c>
@@ -1086,7 +1106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" s="14">
         <v>2</v>
       </c>
@@ -1100,7 +1120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" s="14">
         <v>3</v>
       </c>
@@ -1112,7 +1132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" s="14">
         <v>4</v>
       </c>
@@ -1124,7 +1144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="72">
       <c r="A35" s="14">
         <v>5</v>
       </c>
@@ -1136,7 +1156,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" s="14">
         <v>6</v>
       </c>
@@ -1148,6 +1168,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
@@ -1157,38 +1182,33 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{2A441246-671B-4A14-9F76-2B50E98857DE}"/>
-    <hyperlink ref="C19" r:id="rId2" xr:uid="{CF6DC80E-79E6-4BB8-80A0-915ED081D453}"/>
-    <hyperlink ref="C31" r:id="rId3" xr:uid="{34C35312-CC2B-472A-BA9B-FBB941B3D621}"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C31" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B25" sqref="B25:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.6328125" customWidth="1"/>
-    <col min="3" max="3" width="49.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.1796875" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1198,7 +1218,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1208,7 +1228,7 @@
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1238,7 @@
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
@@ -1228,7 +1248,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1258,7 @@
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
     </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1266,7 +1286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1280,7 +1300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -1292,7 +1312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="28.8">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -1304,7 +1324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="57.6">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -1318,7 +1338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1328,7 +1348,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1358,7 @@
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -1348,7 +1368,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1378,7 @@
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
@@ -1368,7 +1388,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1378,7 +1398,7 @@
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1392,7 +1412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -1406,7 +1426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -1420,7 +1440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -1432,7 +1452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="28.8">
       <c r="A22" s="6">
         <v>4</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="57.6">
       <c r="A23" s="6">
         <v>5</v>
       </c>
@@ -1458,7 +1478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="6">
         <v>6</v>
       </c>
@@ -1468,37 +1488,37 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1508,17 +1528,17 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -1546,7 +1566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" s="6">
         <v>2</v>
       </c>
@@ -1560,7 +1580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" s="6">
         <v>3</v>
       </c>
@@ -1572,7 +1592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" s="6">
         <v>4</v>
       </c>
@@ -1584,7 +1604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="28.8">
       <c r="A35" s="6">
         <v>5</v>
       </c>
@@ -1598,7 +1618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" s="6">
         <v>6</v>
       </c>
@@ -1610,7 +1630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" s="6">
         <v>7</v>
       </c>
@@ -1622,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="72">
       <c r="A38" s="6">
         <v>8</v>
       </c>
@@ -1634,7 +1654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" s="6">
         <v>6</v>
       </c>
@@ -1660,10 +1680,59 @@
     <mergeCell ref="B27:D27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{336CFA2F-A984-41ED-A9D1-31DACA85DFAC}"/>
-    <hyperlink ref="C31" r:id="rId2" xr:uid="{86B7C135-73C2-4B2E-AD47-9B337C32822A}"/>
-    <hyperlink ref="C19" r:id="rId3" xr:uid="{F0B2B7E7-CF71-4A61-88E1-B73C974AA153}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C31" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="24">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>